--- a/data/table_data/sub_names.xlsx
+++ b/data/table_data/sub_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\contract_manage\data\table_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD3003C-E7CC-4387-92B0-57570FAE775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F7B795-6C96-4B40-82DC-05DC257963CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="690" windowWidth="15375" windowHeight="7875" xr2:uid="{3CE83345-67DB-4624-B631-698EB2F41508}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CE83345-67DB-4624-B631-698EB2F41508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>sub_name</t>
   </si>
@@ -122,6 +122,63 @@
   </si>
   <si>
     <t>wasantha</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>651680778V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tholabowaththa, 4th mile post, Gamewela, </t>
+  </si>
+  <si>
+    <t>20/1, Karagasthanna, Narampanawa</t>
+  </si>
+  <si>
+    <t>732040781V</t>
+  </si>
+  <si>
+    <t>149, Ogastawattha, Udaperadeniya</t>
+  </si>
+  <si>
+    <t>902530886V</t>
+  </si>
+  <si>
+    <t>101, Thissapuea, Madirigiriya</t>
+  </si>
+  <si>
+    <t>763423000V</t>
+  </si>
+  <si>
+    <t>No 190/2, Megodagammadda, Walala, Manikhinna</t>
+  </si>
+  <si>
+    <t>Yatipiyangala, Gampola</t>
+  </si>
+  <si>
+    <t>853594164V</t>
+  </si>
+  <si>
+    <t>580443460V</t>
+  </si>
+  <si>
+    <t>A-1, Kandegedara, Dewalegama, Kagalle</t>
+  </si>
+  <si>
+    <t>Mandawela Road, Wedapola, Pothuhara</t>
+  </si>
+  <si>
+    <t>792941419V</t>
+  </si>
+  <si>
+    <t>G Siril</t>
+  </si>
+  <si>
+    <t>10/A, Wendesiwattha, Ambulugala, Mawanalla.</t>
+  </si>
+  <si>
+    <t>643024063V</t>
   </si>
 </sst>
 </file>
@@ -157,8 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,59 +534,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0F0230-C59D-4437-963A-F1F63677A66A}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>197412402389</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -533,39 +610,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -573,38 +674,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>